--- a/sisab_scrap_download/norte/cid_f/joined_files/joined_norte.xlsx
+++ b/sisab_scrap_download/norte/cid_f/joined_files/joined_norte.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE12"/>
+  <dimension ref="A1:CS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,42 +733,6 @@
       <c r="CS1" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="CT1" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="CU1" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="CV1" s="2" t="n">
-        <v>45566</v>
-      </c>
-      <c r="CW1" s="2" t="n">
-        <v>45536</v>
-      </c>
-      <c r="CX1" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="CY1" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="CZ1" s="2" t="n">
-        <v>45444</v>
-      </c>
-      <c r="DA1" s="2" t="n">
-        <v>45413</v>
-      </c>
-      <c r="DB1" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="DC1" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="DD1" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="DE1" s="2" t="n">
-        <v>45292</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,3351 +1028,3250 @@
       <c r="CS2" t="n">
         <v>1356</v>
       </c>
-      <c r="CT2" t="n">
-        <v>1566</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1910</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>2259</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>2231</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>2059</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>2082</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>2047</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>2293</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>2091</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>2009</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>2049</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
+          <t>F10-F19 - Transtornos mentais e comportamentais devidos ao uso de substância psicoativa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="E3" t="n">
-        <v>632</v>
+        <v>121</v>
       </c>
       <c r="F3" t="n">
-        <v>710</v>
+        <v>123</v>
       </c>
       <c r="G3" t="n">
-        <v>594</v>
+        <v>86</v>
       </c>
       <c r="H3" t="n">
-        <v>673</v>
+        <v>105</v>
       </c>
       <c r="I3" t="n">
-        <v>523</v>
+        <v>109</v>
       </c>
       <c r="J3" t="n">
-        <v>459</v>
+        <v>95</v>
       </c>
       <c r="K3" t="n">
-        <v>653</v>
+        <v>179</v>
       </c>
       <c r="L3" t="n">
-        <v>487</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>427</v>
+        <v>91</v>
       </c>
       <c r="N3" t="n">
-        <v>909</v>
+        <v>219</v>
       </c>
       <c r="O3" t="n">
-        <v>1227</v>
+        <v>277</v>
       </c>
       <c r="P3" t="n">
-        <v>1182</v>
+        <v>205</v>
       </c>
       <c r="Q3" t="n">
-        <v>1005</v>
+        <v>180</v>
       </c>
       <c r="R3" t="n">
-        <v>926</v>
+        <v>149</v>
       </c>
       <c r="S3" t="n">
-        <v>748</v>
+        <v>156</v>
       </c>
       <c r="T3" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="U3" t="n">
-        <v>787</v>
+        <v>193</v>
       </c>
       <c r="V3" t="n">
-        <v>705</v>
+        <v>95</v>
       </c>
       <c r="W3" t="n">
-        <v>755</v>
+        <v>118</v>
       </c>
       <c r="X3" t="n">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="n">
-        <v>479</v>
+        <v>95</v>
       </c>
       <c r="Z3" t="n">
-        <v>1290</v>
+        <v>175</v>
       </c>
       <c r="AA3" t="n">
-        <v>1631</v>
+        <v>217</v>
       </c>
       <c r="AB3" t="n">
-        <v>1849</v>
+        <v>235</v>
       </c>
       <c r="AC3" t="n">
-        <v>1807</v>
+        <v>215</v>
       </c>
       <c r="AD3" t="n">
-        <v>2050</v>
+        <v>377</v>
       </c>
       <c r="AE3" t="n">
-        <v>1534</v>
+        <v>191</v>
       </c>
       <c r="AF3" t="n">
-        <v>1599</v>
+        <v>279</v>
       </c>
       <c r="AG3" t="n">
-        <v>1538</v>
+        <v>190</v>
       </c>
       <c r="AH3" t="n">
-        <v>1363</v>
+        <v>186</v>
       </c>
       <c r="AI3" t="n">
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1051</v>
+        <v>172</v>
       </c>
       <c r="AK3" t="n">
-        <v>1220</v>
+        <v>281</v>
       </c>
       <c r="AL3" t="n">
-        <v>1273</v>
+        <v>163</v>
       </c>
       <c r="AM3" t="n">
-        <v>1555</v>
+        <v>163</v>
       </c>
       <c r="AN3" t="n">
-        <v>1729</v>
+        <v>199</v>
       </c>
       <c r="AO3" t="n">
-        <v>1677</v>
+        <v>195</v>
       </c>
       <c r="AP3" t="n">
-        <v>1707</v>
+        <v>228</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1924</v>
+        <v>225</v>
       </c>
       <c r="AR3" t="n">
-        <v>1720</v>
+        <v>164</v>
       </c>
       <c r="AS3" t="n">
-        <v>1949</v>
+        <v>237</v>
       </c>
       <c r="AT3" t="n">
-        <v>1808</v>
+        <v>241</v>
       </c>
       <c r="AU3" t="n">
-        <v>1299</v>
+        <v>211</v>
       </c>
       <c r="AV3" t="n">
-        <v>1881</v>
+        <v>300</v>
       </c>
       <c r="AW3" t="n">
-        <v>1681</v>
+        <v>352</v>
       </c>
       <c r="AX3" t="n">
-        <v>1245</v>
+        <v>199</v>
       </c>
       <c r="AY3" t="n">
-        <v>1400</v>
+        <v>220</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1418</v>
+        <v>205</v>
       </c>
       <c r="BA3" t="n">
-        <v>1466</v>
+        <v>254</v>
       </c>
       <c r="BB3" t="n">
-        <v>1476</v>
+        <v>262</v>
       </c>
       <c r="BC3" t="n">
-        <v>1441</v>
+        <v>285</v>
       </c>
       <c r="BD3" t="n">
-        <v>1333</v>
+        <v>286</v>
       </c>
       <c r="BE3" t="n">
-        <v>1254</v>
+        <v>222</v>
       </c>
       <c r="BF3" t="n">
-        <v>1359</v>
+        <v>183</v>
       </c>
       <c r="BG3" t="n">
-        <v>1675</v>
+        <v>245</v>
       </c>
       <c r="BH3" t="n">
-        <v>1488</v>
+        <v>191</v>
       </c>
       <c r="BI3" t="n">
-        <v>1755</v>
+        <v>206</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1851</v>
+        <v>362</v>
       </c>
       <c r="BK3" t="n">
-        <v>1932</v>
+        <v>333</v>
       </c>
       <c r="BL3" t="n">
-        <v>1612</v>
+        <v>387</v>
       </c>
       <c r="BM3" t="n">
-        <v>1821</v>
+        <v>452</v>
       </c>
       <c r="BN3" t="n">
-        <v>1988</v>
+        <v>399</v>
       </c>
       <c r="BO3" t="n">
-        <v>1793</v>
+        <v>334</v>
       </c>
       <c r="BP3" t="n">
-        <v>1817</v>
+        <v>241</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1689</v>
+        <v>224</v>
       </c>
       <c r="BR3" t="n">
-        <v>1578</v>
+        <v>229</v>
       </c>
       <c r="BS3" t="n">
-        <v>1659</v>
+        <v>226</v>
       </c>
       <c r="BT3" t="n">
-        <v>1310</v>
+        <v>188</v>
       </c>
       <c r="BU3" t="n">
-        <v>1294</v>
+        <v>169</v>
       </c>
       <c r="BV3" t="n">
-        <v>2008</v>
+        <v>344</v>
       </c>
       <c r="BW3" t="n">
-        <v>2227</v>
+        <v>468</v>
       </c>
       <c r="BX3" t="n">
-        <v>2026</v>
+        <v>423</v>
       </c>
       <c r="BY3" t="n">
-        <v>2229</v>
+        <v>474</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2381</v>
+        <v>559</v>
       </c>
       <c r="CA3" t="n">
-        <v>1780</v>
+        <v>324</v>
       </c>
       <c r="CB3" t="n">
-        <v>2119</v>
+        <v>425</v>
       </c>
       <c r="CC3" t="n">
-        <v>2258</v>
+        <v>438</v>
       </c>
       <c r="CD3" t="n">
-        <v>1786</v>
+        <v>398</v>
       </c>
       <c r="CE3" t="n">
-        <v>2191</v>
+        <v>391</v>
       </c>
       <c r="CF3" t="n">
-        <v>1925</v>
+        <v>340</v>
       </c>
       <c r="CG3" t="n">
-        <v>1790</v>
+        <v>333</v>
       </c>
       <c r="CH3" t="n">
-        <v>2447</v>
+        <v>582</v>
       </c>
       <c r="CI3" t="n">
-        <v>2743</v>
+        <v>776</v>
       </c>
       <c r="CJ3" t="n">
-        <v>2940</v>
+        <v>676</v>
       </c>
       <c r="CK3" t="n">
-        <v>2464</v>
+        <v>640</v>
       </c>
       <c r="CL3" t="n">
-        <v>2846</v>
+        <v>853</v>
       </c>
       <c r="CM3" t="n">
-        <v>2410</v>
+        <v>609</v>
       </c>
       <c r="CN3" t="n">
-        <v>2415</v>
+        <v>591</v>
       </c>
       <c r="CO3" t="n">
-        <v>2640</v>
+        <v>601</v>
       </c>
       <c r="CP3" t="n">
-        <v>2115</v>
+        <v>485</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2614</v>
+        <v>593</v>
       </c>
       <c r="CR3" t="n">
-        <v>2107</v>
+        <v>497</v>
       </c>
       <c r="CS3" t="n">
-        <v>2342</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>2429</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>2797</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>3210</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>2965</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3267</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>2948</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>2887</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>2999</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>3165</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>2764</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>2710</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>2892</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F30-F39 - Transtornos do humor [afetivos]</t>
+          <t>F20-F29 - Esquizofrenia, transtornos esquizotípicos e transtornos delirantes</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675</v>
+        <v>388</v>
       </c>
       <c r="C4" t="n">
-        <v>759</v>
+        <v>379</v>
       </c>
       <c r="D4" t="n">
-        <v>1059</v>
+        <v>502</v>
       </c>
       <c r="E4" t="n">
-        <v>1126</v>
+        <v>632</v>
       </c>
       <c r="F4" t="n">
-        <v>1170</v>
+        <v>710</v>
       </c>
       <c r="G4" t="n">
-        <v>982</v>
+        <v>594</v>
       </c>
       <c r="H4" t="n">
-        <v>1317</v>
+        <v>673</v>
       </c>
       <c r="I4" t="n">
-        <v>1080</v>
+        <v>523</v>
       </c>
       <c r="J4" t="n">
-        <v>1060</v>
+        <v>459</v>
       </c>
       <c r="K4" t="n">
-        <v>1158</v>
+        <v>653</v>
       </c>
       <c r="L4" t="n">
-        <v>961</v>
+        <v>487</v>
       </c>
       <c r="M4" t="n">
-        <v>862</v>
+        <v>427</v>
       </c>
       <c r="N4" t="n">
-        <v>1782</v>
+        <v>909</v>
       </c>
       <c r="O4" t="n">
-        <v>2109</v>
+        <v>1227</v>
       </c>
       <c r="P4" t="n">
-        <v>2154</v>
+        <v>1182</v>
       </c>
       <c r="Q4" t="n">
-        <v>1984</v>
+        <v>1005</v>
       </c>
       <c r="R4" t="n">
-        <v>1893</v>
+        <v>926</v>
       </c>
       <c r="S4" t="n">
-        <v>1450</v>
+        <v>748</v>
       </c>
       <c r="T4" t="n">
-        <v>1498</v>
+        <v>771</v>
       </c>
       <c r="U4" t="n">
+        <v>787</v>
+      </c>
+      <c r="V4" t="n">
+        <v>705</v>
+      </c>
+      <c r="W4" t="n">
+        <v>755</v>
+      </c>
+      <c r="X4" t="n">
+        <v>448</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>479</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1631</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1807</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1534</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1538</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1363</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1051</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1220</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1273</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1555</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1729</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1677</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1707</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1924</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1949</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1808</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1881</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1681</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1418</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1466</v>
+      </c>
+      <c r="BB4" t="n">
         <v>1476</v>
       </c>
-      <c r="V4" t="n">
-        <v>1209</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1139</v>
-      </c>
-      <c r="X4" t="n">
-        <v>918</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>941</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1824</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2461</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3162</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3002</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3204</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2459</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2419</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2472</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2498</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2313</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1935</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>2048</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2344</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2860</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3453</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3232</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>3311</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2867</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="BC4" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1333</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1254</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1359</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1675</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1488</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1755</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1851</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1932</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1612</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1821</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1988</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1793</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1817</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1689</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1578</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1659</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1310</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1294</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2227</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>2026</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>2229</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>2381</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1780</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>2119</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>2258</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1786</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>2191</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1925</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1790</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>2447</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>2743</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>2940</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>2464</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>2846</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>2410</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2415</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>2640</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2115</v>
+      </c>
+      <c r="CQ4" t="n">
         <v>2614</v>
       </c>
-      <c r="AS4" t="n">
-        <v>2932</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2584</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2054</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>3076</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>2877</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2280</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>3033</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>2884</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2990</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>2721</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>2943</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>2515</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>2323</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>2296</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>2904</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>2666</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>2852</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>3446</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>3674</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>3697</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>3874</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>4059</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>3506</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>3447</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>3336</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>3033</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>3243</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>2399</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>2255</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>3791</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>4398</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>4100</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>4570</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>4874</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>3643</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>4241</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>4636</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>3794</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>4450</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>3568</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>3061</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>4797</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>5633</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>6053</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>5324</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>6131</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>4865</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>4892</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>5301</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>4432</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>5106</v>
-      </c>
       <c r="CR4" t="n">
-        <v>3907</v>
+        <v>2107</v>
       </c>
       <c r="CS4" t="n">
-        <v>4543</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>4785</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>5732</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>7065</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>6504</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>6363</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>5907</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>5960</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>5917</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>6669</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>5812</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>5775</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>5824</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
+          <t>F30-F39 - Transtornos do humor [afetivos]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012</v>
+        <v>675</v>
       </c>
       <c r="C5" t="n">
-        <v>1195</v>
+        <v>759</v>
       </c>
       <c r="D5" t="n">
-        <v>1472</v>
+        <v>1059</v>
       </c>
       <c r="E5" t="n">
-        <v>1618</v>
+        <v>1126</v>
       </c>
       <c r="F5" t="n">
-        <v>1928</v>
+        <v>1170</v>
       </c>
       <c r="G5" t="n">
-        <v>1431</v>
+        <v>982</v>
       </c>
       <c r="H5" t="n">
-        <v>1750</v>
+        <v>1317</v>
       </c>
       <c r="I5" t="n">
-        <v>1606</v>
+        <v>1080</v>
       </c>
       <c r="J5" t="n">
-        <v>1434</v>
+        <v>1060</v>
       </c>
       <c r="K5" t="n">
-        <v>1607</v>
+        <v>1158</v>
       </c>
       <c r="L5" t="n">
-        <v>1583</v>
+        <v>961</v>
       </c>
       <c r="M5" t="n">
-        <v>1324</v>
+        <v>862</v>
       </c>
       <c r="N5" t="n">
-        <v>2595</v>
+        <v>1782</v>
       </c>
       <c r="O5" t="n">
-        <v>3046</v>
+        <v>2109</v>
       </c>
       <c r="P5" t="n">
-        <v>3143</v>
+        <v>2154</v>
       </c>
       <c r="Q5" t="n">
-        <v>2754</v>
+        <v>1984</v>
       </c>
       <c r="R5" t="n">
-        <v>2864</v>
+        <v>1893</v>
       </c>
       <c r="S5" t="n">
-        <v>2125</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
-        <v>2168</v>
+        <v>1498</v>
       </c>
       <c r="U5" t="n">
-        <v>2283</v>
+        <v>1476</v>
       </c>
       <c r="V5" t="n">
-        <v>1858</v>
+        <v>1209</v>
       </c>
       <c r="W5" t="n">
-        <v>1821</v>
+        <v>1139</v>
       </c>
       <c r="X5" t="n">
-        <v>1369</v>
+        <v>918</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335</v>
+        <v>941</v>
       </c>
       <c r="Z5" t="n">
-        <v>2872</v>
+        <v>1824</v>
       </c>
       <c r="AA5" t="n">
-        <v>3805</v>
+        <v>2461</v>
       </c>
       <c r="AB5" t="n">
-        <v>4885</v>
+        <v>3162</v>
       </c>
       <c r="AC5" t="n">
-        <v>4195</v>
+        <v>3002</v>
       </c>
       <c r="AD5" t="n">
-        <v>4729</v>
+        <v>3204</v>
       </c>
       <c r="AE5" t="n">
-        <v>3818</v>
+        <v>2459</v>
       </c>
       <c r="AF5" t="n">
-        <v>3552</v>
+        <v>2419</v>
       </c>
       <c r="AG5" t="n">
-        <v>3894</v>
+        <v>2472</v>
       </c>
       <c r="AH5" t="n">
-        <v>3809</v>
+        <v>2498</v>
       </c>
       <c r="AI5" t="n">
-        <v>3454</v>
+        <v>2313</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3124</v>
+        <v>1935</v>
       </c>
       <c r="AK5" t="n">
-        <v>3211</v>
+        <v>2048</v>
       </c>
       <c r="AL5" t="n">
-        <v>3862</v>
+        <v>2344</v>
       </c>
       <c r="AM5" t="n">
-        <v>4723</v>
+        <v>2860</v>
       </c>
       <c r="AN5" t="n">
-        <v>5469</v>
+        <v>3453</v>
       </c>
       <c r="AO5" t="n">
-        <v>4748</v>
+        <v>3232</v>
       </c>
       <c r="AP5" t="n">
-        <v>5588</v>
+        <v>3311</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5189</v>
+        <v>2867</v>
       </c>
       <c r="AR5" t="n">
-        <v>4218</v>
+        <v>2614</v>
       </c>
       <c r="AS5" t="n">
-        <v>5155</v>
+        <v>2932</v>
       </c>
       <c r="AT5" t="n">
-        <v>4459</v>
+        <v>2584</v>
       </c>
       <c r="AU5" t="n">
-        <v>3440</v>
+        <v>2054</v>
       </c>
       <c r="AV5" t="n">
-        <v>5258</v>
+        <v>3076</v>
       </c>
       <c r="AW5" t="n">
-        <v>4704</v>
+        <v>2877</v>
       </c>
       <c r="AX5" t="n">
-        <v>5195</v>
+        <v>2280</v>
       </c>
       <c r="AY5" t="n">
-        <v>6522</v>
+        <v>3033</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6750</v>
+        <v>2884</v>
       </c>
       <c r="BA5" t="n">
-        <v>6968</v>
+        <v>2990</v>
       </c>
       <c r="BB5" t="n">
-        <v>6635</v>
+        <v>2721</v>
       </c>
       <c r="BC5" t="n">
-        <v>7693</v>
+        <v>2943</v>
       </c>
       <c r="BD5" t="n">
-        <v>6781</v>
+        <v>2515</v>
       </c>
       <c r="BE5" t="n">
-        <v>6215</v>
+        <v>2323</v>
       </c>
       <c r="BF5" t="n">
-        <v>4817</v>
+        <v>2296</v>
       </c>
       <c r="BG5" t="n">
-        <v>5076</v>
+        <v>2904</v>
       </c>
       <c r="BH5" t="n">
-        <v>4595</v>
+        <v>2666</v>
       </c>
       <c r="BI5" t="n">
-        <v>4817</v>
+        <v>2852</v>
       </c>
       <c r="BJ5" t="n">
-        <v>8956</v>
+        <v>3446</v>
       </c>
       <c r="BK5" t="n">
-        <v>9502</v>
+        <v>3674</v>
       </c>
       <c r="BL5" t="n">
-        <v>9492</v>
+        <v>3697</v>
       </c>
       <c r="BM5" t="n">
-        <v>9972</v>
+        <v>3874</v>
       </c>
       <c r="BN5" t="n">
-        <v>10554</v>
+        <v>4059</v>
       </c>
       <c r="BO5" t="n">
-        <v>8963</v>
+        <v>3506</v>
       </c>
       <c r="BP5" t="n">
-        <v>9061</v>
+        <v>3447</v>
       </c>
       <c r="BQ5" t="n">
-        <v>9251</v>
+        <v>3336</v>
       </c>
       <c r="BR5" t="n">
-        <v>8500</v>
+        <v>3033</v>
       </c>
       <c r="BS5" t="n">
-        <v>8720</v>
+        <v>3243</v>
       </c>
       <c r="BT5" t="n">
-        <v>6459</v>
+        <v>2399</v>
       </c>
       <c r="BU5" t="n">
-        <v>5250</v>
+        <v>2255</v>
       </c>
       <c r="BV5" t="n">
-        <v>10705</v>
+        <v>3791</v>
       </c>
       <c r="BW5" t="n">
-        <v>12451</v>
+        <v>4398</v>
       </c>
       <c r="BX5" t="n">
-        <v>12452</v>
+        <v>4100</v>
       </c>
       <c r="BY5" t="n">
-        <v>13022</v>
+        <v>4570</v>
       </c>
       <c r="BZ5" t="n">
-        <v>13846</v>
+        <v>4874</v>
       </c>
       <c r="CA5" t="n">
-        <v>10161</v>
+        <v>3643</v>
       </c>
       <c r="CB5" t="n">
-        <v>11529</v>
+        <v>4241</v>
       </c>
       <c r="CC5" t="n">
-        <v>12930</v>
+        <v>4636</v>
       </c>
       <c r="CD5" t="n">
-        <v>10969</v>
+        <v>3794</v>
       </c>
       <c r="CE5" t="n">
-        <v>12099</v>
+        <v>4450</v>
       </c>
       <c r="CF5" t="n">
-        <v>9579</v>
+        <v>3568</v>
       </c>
       <c r="CG5" t="n">
-        <v>8400</v>
+        <v>3061</v>
       </c>
       <c r="CH5" t="n">
-        <v>14828</v>
+        <v>4797</v>
       </c>
       <c r="CI5" t="n">
-        <v>17770</v>
+        <v>5633</v>
       </c>
       <c r="CJ5" t="n">
-        <v>18565</v>
+        <v>6053</v>
       </c>
       <c r="CK5" t="n">
-        <v>16893</v>
+        <v>5324</v>
       </c>
       <c r="CL5" t="n">
-        <v>18536</v>
+        <v>6131</v>
       </c>
       <c r="CM5" t="n">
-        <v>14808</v>
+        <v>4865</v>
       </c>
       <c r="CN5" t="n">
-        <v>14514</v>
+        <v>4892</v>
       </c>
       <c r="CO5" t="n">
-        <v>15923</v>
+        <v>5301</v>
       </c>
       <c r="CP5" t="n">
-        <v>13063</v>
+        <v>4432</v>
       </c>
       <c r="CQ5" t="n">
-        <v>15597</v>
+        <v>5106</v>
       </c>
       <c r="CR5" t="n">
-        <v>12009</v>
+        <v>3907</v>
       </c>
       <c r="CS5" t="n">
-        <v>13123</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>16472</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>19912</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>24121</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>22285</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>21567</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>20220</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>20083</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>20029</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>22365</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>19115</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>18175</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>19028</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
+          <t>F40-F48 - Transtornos neuróticos, transtornos relacionados com o "stress" e transtornos somatoformes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216</v>
+        <v>1012</v>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>1195</v>
       </c>
       <c r="D6" t="n">
-        <v>232</v>
+        <v>1472</v>
       </c>
       <c r="E6" t="n">
-        <v>298</v>
+        <v>1618</v>
       </c>
       <c r="F6" t="n">
-        <v>345</v>
+        <v>1928</v>
       </c>
       <c r="G6" t="n">
-        <v>336</v>
+        <v>1431</v>
       </c>
       <c r="H6" t="n">
-        <v>311</v>
+        <v>1750</v>
       </c>
       <c r="I6" t="n">
-        <v>313</v>
+        <v>1606</v>
       </c>
       <c r="J6" t="n">
-        <v>251</v>
+        <v>1434</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>1607</v>
       </c>
       <c r="L6" t="n">
-        <v>257</v>
+        <v>1583</v>
       </c>
       <c r="M6" t="n">
-        <v>201</v>
+        <v>1324</v>
       </c>
       <c r="N6" t="n">
-        <v>394</v>
+        <v>2595</v>
       </c>
       <c r="O6" t="n">
-        <v>477</v>
+        <v>3046</v>
       </c>
       <c r="P6" t="n">
-        <v>433</v>
+        <v>3143</v>
       </c>
       <c r="Q6" t="n">
-        <v>422</v>
+        <v>2754</v>
       </c>
       <c r="R6" t="n">
-        <v>518</v>
+        <v>2864</v>
       </c>
       <c r="S6" t="n">
-        <v>373</v>
+        <v>2125</v>
       </c>
       <c r="T6" t="n">
-        <v>378</v>
+        <v>2168</v>
       </c>
       <c r="U6" t="n">
-        <v>335</v>
+        <v>2283</v>
       </c>
       <c r="V6" t="n">
-        <v>264</v>
+        <v>1858</v>
       </c>
       <c r="W6" t="n">
-        <v>286</v>
+        <v>1821</v>
       </c>
       <c r="X6" t="n">
-        <v>248</v>
+        <v>1369</v>
       </c>
       <c r="Y6" t="n">
-        <v>242</v>
+        <v>1335</v>
       </c>
       <c r="Z6" t="n">
-        <v>393</v>
+        <v>2872</v>
       </c>
       <c r="AA6" t="n">
-        <v>576</v>
+        <v>3805</v>
       </c>
       <c r="AB6" t="n">
-        <v>696</v>
+        <v>4885</v>
       </c>
       <c r="AC6" t="n">
-        <v>592</v>
+        <v>4195</v>
       </c>
       <c r="AD6" t="n">
-        <v>743</v>
+        <v>4729</v>
       </c>
       <c r="AE6" t="n">
-        <v>560</v>
+        <v>3818</v>
       </c>
       <c r="AF6" t="n">
-        <v>560</v>
+        <v>3552</v>
       </c>
       <c r="AG6" t="n">
-        <v>640</v>
+        <v>3894</v>
       </c>
       <c r="AH6" t="n">
-        <v>592</v>
+        <v>3809</v>
       </c>
       <c r="AI6" t="n">
-        <v>609</v>
+        <v>3454</v>
       </c>
       <c r="AJ6" t="n">
-        <v>508</v>
+        <v>3124</v>
       </c>
       <c r="AK6" t="n">
-        <v>513</v>
+        <v>3211</v>
       </c>
       <c r="AL6" t="n">
-        <v>562</v>
+        <v>3862</v>
       </c>
       <c r="AM6" t="n">
-        <v>725</v>
+        <v>4723</v>
       </c>
       <c r="AN6" t="n">
-        <v>863</v>
+        <v>5469</v>
       </c>
       <c r="AO6" t="n">
-        <v>846</v>
+        <v>4748</v>
       </c>
       <c r="AP6" t="n">
-        <v>884</v>
+        <v>5588</v>
       </c>
       <c r="AQ6" t="n">
-        <v>857</v>
+        <v>5189</v>
       </c>
       <c r="AR6" t="n">
-        <v>743</v>
+        <v>4218</v>
       </c>
       <c r="AS6" t="n">
-        <v>812</v>
+        <v>5155</v>
       </c>
       <c r="AT6" t="n">
-        <v>738</v>
+        <v>4459</v>
       </c>
       <c r="AU6" t="n">
-        <v>532</v>
+        <v>3440</v>
       </c>
       <c r="AV6" t="n">
-        <v>883</v>
+        <v>5258</v>
       </c>
       <c r="AW6" t="n">
-        <v>796</v>
+        <v>4704</v>
       </c>
       <c r="AX6" t="n">
-        <v>619</v>
+        <v>5195</v>
       </c>
       <c r="AY6" t="n">
-        <v>859</v>
+        <v>6522</v>
       </c>
       <c r="AZ6" t="n">
-        <v>863</v>
+        <v>6750</v>
       </c>
       <c r="BA6" t="n">
-        <v>959</v>
+        <v>6968</v>
       </c>
       <c r="BB6" t="n">
-        <v>909</v>
+        <v>6635</v>
       </c>
       <c r="BC6" t="n">
-        <v>1032</v>
+        <v>7693</v>
       </c>
       <c r="BD6" t="n">
-        <v>859</v>
+        <v>6781</v>
       </c>
       <c r="BE6" t="n">
-        <v>701</v>
+        <v>6215</v>
       </c>
       <c r="BF6" t="n">
-        <v>574</v>
+        <v>4817</v>
       </c>
       <c r="BG6" t="n">
-        <v>738</v>
+        <v>5076</v>
       </c>
       <c r="BH6" t="n">
-        <v>660</v>
+        <v>4595</v>
       </c>
       <c r="BI6" t="n">
-        <v>690</v>
+        <v>4817</v>
       </c>
       <c r="BJ6" t="n">
-        <v>823</v>
+        <v>8956</v>
       </c>
       <c r="BK6" t="n">
-        <v>909</v>
+        <v>9502</v>
       </c>
       <c r="BL6" t="n">
-        <v>909</v>
+        <v>9492</v>
       </c>
       <c r="BM6" t="n">
-        <v>907</v>
+        <v>9972</v>
       </c>
       <c r="BN6" t="n">
-        <v>953</v>
+        <v>10554</v>
       </c>
       <c r="BO6" t="n">
-        <v>957</v>
+        <v>8963</v>
       </c>
       <c r="BP6" t="n">
-        <v>947</v>
+        <v>9061</v>
       </c>
       <c r="BQ6" t="n">
-        <v>896</v>
+        <v>9251</v>
       </c>
       <c r="BR6" t="n">
-        <v>898</v>
+        <v>8500</v>
       </c>
       <c r="BS6" t="n">
-        <v>899</v>
+        <v>8720</v>
       </c>
       <c r="BT6" t="n">
-        <v>742</v>
+        <v>6459</v>
       </c>
       <c r="BU6" t="n">
-        <v>640</v>
+        <v>5250</v>
       </c>
       <c r="BV6" t="n">
-        <v>865</v>
+        <v>10705</v>
       </c>
       <c r="BW6" t="n">
-        <v>940</v>
+        <v>12451</v>
       </c>
       <c r="BX6" t="n">
-        <v>970</v>
+        <v>12452</v>
       </c>
       <c r="BY6" t="n">
-        <v>1032</v>
+        <v>13022</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1035</v>
+        <v>13846</v>
       </c>
       <c r="CA6" t="n">
-        <v>767</v>
+        <v>10161</v>
       </c>
       <c r="CB6" t="n">
-        <v>964</v>
+        <v>11529</v>
       </c>
       <c r="CC6" t="n">
-        <v>1037</v>
+        <v>12930</v>
       </c>
       <c r="CD6" t="n">
-        <v>875</v>
+        <v>10969</v>
       </c>
       <c r="CE6" t="n">
-        <v>1018</v>
+        <v>12099</v>
       </c>
       <c r="CF6" t="n">
-        <v>893</v>
+        <v>9579</v>
       </c>
       <c r="CG6" t="n">
-        <v>752</v>
+        <v>8400</v>
       </c>
       <c r="CH6" t="n">
-        <v>1065</v>
+        <v>14828</v>
       </c>
       <c r="CI6" t="n">
-        <v>1214</v>
+        <v>17770</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1272</v>
+        <v>18565</v>
       </c>
       <c r="CK6" t="n">
-        <v>1189</v>
+        <v>16893</v>
       </c>
       <c r="CL6" t="n">
-        <v>1285</v>
+        <v>18536</v>
       </c>
       <c r="CM6" t="n">
-        <v>1202</v>
+        <v>14808</v>
       </c>
       <c r="CN6" t="n">
-        <v>1075</v>
+        <v>14514</v>
       </c>
       <c r="CO6" t="n">
-        <v>1189</v>
+        <v>15923</v>
       </c>
       <c r="CP6" t="n">
-        <v>1062</v>
+        <v>13063</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1285</v>
+        <v>15597</v>
       </c>
       <c r="CR6" t="n">
-        <v>970</v>
+        <v>12009</v>
       </c>
       <c r="CS6" t="n">
-        <v>1068</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>1010</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>1219</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>1335</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>1390</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>1387</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>1426</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>1652</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>1377</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>1567</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>1326</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>1202</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>1365</v>
+        <v>13123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
+          <t>F50-F59 - Síndromes comportamentais associadas a disfunções fisiológicas e a fatores físicos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="F7" t="n">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>336</v>
       </c>
       <c r="H7" t="n">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="J7" t="n">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="K7" t="n">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="N7" t="n">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="O7" t="n">
-        <v>52</v>
+        <v>477</v>
       </c>
       <c r="P7" t="n">
-        <v>55</v>
+        <v>433</v>
       </c>
       <c r="Q7" t="n">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="R7" t="n">
-        <v>55</v>
+        <v>518</v>
       </c>
       <c r="S7" t="n">
-        <v>36</v>
+        <v>373</v>
       </c>
       <c r="T7" t="n">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="U7" t="n">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="V7" t="n">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="W7" t="n">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="Z7" t="n">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AA7" t="n">
-        <v>78</v>
+        <v>576</v>
       </c>
       <c r="AB7" t="n">
-        <v>91</v>
+        <v>696</v>
       </c>
       <c r="AC7" t="n">
-        <v>85</v>
+        <v>592</v>
       </c>
       <c r="AD7" t="n">
-        <v>97</v>
+        <v>743</v>
       </c>
       <c r="AE7" t="n">
-        <v>66</v>
+        <v>560</v>
       </c>
       <c r="AF7" t="n">
-        <v>45</v>
+        <v>560</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>640</v>
       </c>
       <c r="AH7" t="n">
-        <v>59</v>
+        <v>592</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>609</v>
       </c>
       <c r="AJ7" t="n">
-        <v>49</v>
+        <v>508</v>
       </c>
       <c r="AK7" t="n">
-        <v>53</v>
+        <v>513</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>562</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>725</v>
       </c>
       <c r="AN7" t="n">
-        <v>83</v>
+        <v>863</v>
       </c>
       <c r="AO7" t="n">
-        <v>82</v>
+        <v>846</v>
       </c>
       <c r="AP7" t="n">
-        <v>69</v>
+        <v>884</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>857</v>
       </c>
       <c r="AR7" t="n">
-        <v>72</v>
+        <v>743</v>
       </c>
       <c r="AS7" t="n">
-        <v>67</v>
+        <v>812</v>
       </c>
       <c r="AT7" t="n">
-        <v>58</v>
+        <v>738</v>
       </c>
       <c r="AU7" t="n">
-        <v>54</v>
+        <v>532</v>
       </c>
       <c r="AV7" t="n">
-        <v>69</v>
+        <v>883</v>
       </c>
       <c r="AW7" t="n">
-        <v>54</v>
+        <v>796</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>619</v>
       </c>
       <c r="AY7" t="n">
-        <v>56</v>
+        <v>859</v>
       </c>
       <c r="AZ7" t="n">
-        <v>58</v>
+        <v>863</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>959</v>
       </c>
       <c r="BB7" t="n">
-        <v>68</v>
+        <v>909</v>
       </c>
       <c r="BC7" t="n">
-        <v>87</v>
+        <v>1032</v>
       </c>
       <c r="BD7" t="n">
-        <v>56</v>
+        <v>859</v>
       </c>
       <c r="BE7" t="n">
-        <v>50</v>
+        <v>701</v>
       </c>
       <c r="BF7" t="n">
-        <v>36</v>
+        <v>574</v>
       </c>
       <c r="BG7" t="n">
-        <v>56</v>
+        <v>738</v>
       </c>
       <c r="BH7" t="n">
-        <v>46</v>
+        <v>660</v>
       </c>
       <c r="BI7" t="n">
-        <v>54</v>
+        <v>690</v>
       </c>
       <c r="BJ7" t="n">
-        <v>70</v>
+        <v>823</v>
       </c>
       <c r="BK7" t="n">
-        <v>102</v>
+        <v>909</v>
       </c>
       <c r="BL7" t="n">
-        <v>87</v>
+        <v>909</v>
       </c>
       <c r="BM7" t="n">
-        <v>86</v>
+        <v>907</v>
       </c>
       <c r="BN7" t="n">
-        <v>91</v>
+        <v>953</v>
       </c>
       <c r="BO7" t="n">
-        <v>87</v>
+        <v>957</v>
       </c>
       <c r="BP7" t="n">
-        <v>75</v>
+        <v>947</v>
       </c>
       <c r="BQ7" t="n">
-        <v>70</v>
+        <v>896</v>
       </c>
       <c r="BR7" t="n">
-        <v>60</v>
+        <v>898</v>
       </c>
       <c r="BS7" t="n">
-        <v>65</v>
+        <v>899</v>
       </c>
       <c r="BT7" t="n">
-        <v>46</v>
+        <v>742</v>
       </c>
       <c r="BU7" t="n">
-        <v>29</v>
+        <v>640</v>
       </c>
       <c r="BV7" t="n">
-        <v>142</v>
+        <v>865</v>
       </c>
       <c r="BW7" t="n">
-        <v>139</v>
+        <v>940</v>
       </c>
       <c r="BX7" t="n">
-        <v>138</v>
+        <v>970</v>
       </c>
       <c r="BY7" t="n">
-        <v>145</v>
+        <v>1032</v>
       </c>
       <c r="BZ7" t="n">
-        <v>203</v>
+        <v>1035</v>
       </c>
       <c r="CA7" t="n">
-        <v>91</v>
+        <v>767</v>
       </c>
       <c r="CB7" t="n">
-        <v>136</v>
+        <v>964</v>
       </c>
       <c r="CC7" t="n">
-        <v>138</v>
+        <v>1037</v>
       </c>
       <c r="CD7" t="n">
-        <v>129</v>
+        <v>875</v>
       </c>
       <c r="CE7" t="n">
-        <v>110</v>
+        <v>1018</v>
       </c>
       <c r="CF7" t="n">
-        <v>115</v>
+        <v>893</v>
       </c>
       <c r="CG7" t="n">
-        <v>98</v>
+        <v>752</v>
       </c>
       <c r="CH7" t="n">
-        <v>231</v>
+        <v>1065</v>
       </c>
       <c r="CI7" t="n">
-        <v>241</v>
+        <v>1214</v>
       </c>
       <c r="CJ7" t="n">
-        <v>235</v>
+        <v>1272</v>
       </c>
       <c r="CK7" t="n">
-        <v>187</v>
+        <v>1189</v>
       </c>
       <c r="CL7" t="n">
-        <v>269</v>
+        <v>1285</v>
       </c>
       <c r="CM7" t="n">
-        <v>209</v>
+        <v>1202</v>
       </c>
       <c r="CN7" t="n">
-        <v>194</v>
+        <v>1075</v>
       </c>
       <c r="CO7" t="n">
-        <v>231</v>
+        <v>1189</v>
       </c>
       <c r="CP7" t="n">
-        <v>196</v>
+        <v>1062</v>
       </c>
       <c r="CQ7" t="n">
-        <v>188</v>
+        <v>1285</v>
       </c>
       <c r="CR7" t="n">
-        <v>157</v>
+        <v>970</v>
       </c>
       <c r="CS7" t="n">
-        <v>173</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>262</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>326</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>385</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>390</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>338</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>347</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>305</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>316</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>354</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>301</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>291</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>259</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F70-F79 - Retardo mental</t>
+          <t>F60-F69 - Transtornos da personalidade e do comportamento do adulto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>329</v>
+        <v>47</v>
       </c>
       <c r="L8" t="n">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="M8" t="n">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="N8" t="n">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="O8" t="n">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="n">
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="R8" t="n">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="S8" t="n">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="T8" t="n">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="U8" t="n">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="V8" t="n">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="W8" t="n">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="X8" t="n">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="n">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="n">
-        <v>557</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="n">
-        <v>533</v>
+        <v>85</v>
       </c>
       <c r="AD8" t="n">
-        <v>703</v>
+        <v>97</v>
       </c>
       <c r="AE8" t="n">
-        <v>505</v>
+        <v>66</v>
       </c>
       <c r="AF8" t="n">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>526</v>
+        <v>62</v>
       </c>
       <c r="AH8" t="n">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="AI8" t="n">
-        <v>496</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>412</v>
+        <v>49</v>
       </c>
       <c r="AK8" t="n">
-        <v>456</v>
+        <v>53</v>
       </c>
       <c r="AL8" t="n">
-        <v>351</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>483</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>539</v>
+        <v>83</v>
       </c>
       <c r="AO8" t="n">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="AP8" t="n">
-        <v>527</v>
+        <v>69</v>
       </c>
       <c r="AQ8" t="n">
-        <v>547</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>516</v>
+        <v>72</v>
       </c>
       <c r="AS8" t="n">
-        <v>579</v>
+        <v>67</v>
       </c>
       <c r="AT8" t="n">
-        <v>554</v>
+        <v>58</v>
       </c>
       <c r="AU8" t="n">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="AV8" t="n">
-        <v>636</v>
+        <v>69</v>
       </c>
       <c r="AW8" t="n">
-        <v>545</v>
+        <v>54</v>
       </c>
       <c r="AX8" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AY8" t="n">
-        <v>419</v>
+        <v>56</v>
       </c>
       <c r="AZ8" t="n">
-        <v>483</v>
+        <v>58</v>
       </c>
       <c r="BA8" t="n">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>385</v>
+        <v>68</v>
       </c>
       <c r="BC8" t="n">
-        <v>397</v>
+        <v>87</v>
       </c>
       <c r="BD8" t="n">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="BE8" t="n">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="BF8" t="n">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="BG8" t="n">
-        <v>503</v>
+        <v>56</v>
       </c>
       <c r="BH8" t="n">
-        <v>471</v>
+        <v>46</v>
       </c>
       <c r="BI8" t="n">
-        <v>486</v>
+        <v>54</v>
       </c>
       <c r="BJ8" t="n">
-        <v>637</v>
+        <v>70</v>
       </c>
       <c r="BK8" t="n">
-        <v>708</v>
+        <v>102</v>
       </c>
       <c r="BL8" t="n">
-        <v>704</v>
+        <v>87</v>
       </c>
       <c r="BM8" t="n">
-        <v>721</v>
+        <v>86</v>
       </c>
       <c r="BN8" t="n">
-        <v>788</v>
+        <v>91</v>
       </c>
       <c r="BO8" t="n">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="BP8" t="n">
-        <v>770</v>
+        <v>75</v>
       </c>
       <c r="BQ8" t="n">
-        <v>762</v>
+        <v>70</v>
       </c>
       <c r="BR8" t="n">
-        <v>585</v>
+        <v>60</v>
       </c>
       <c r="BS8" t="n">
-        <v>474</v>
+        <v>65</v>
       </c>
       <c r="BT8" t="n">
-        <v>358</v>
+        <v>46</v>
       </c>
       <c r="BU8" t="n">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="BV8" t="n">
-        <v>741</v>
+        <v>142</v>
       </c>
       <c r="BW8" t="n">
-        <v>1013</v>
+        <v>139</v>
       </c>
       <c r="BX8" t="n">
-        <v>891</v>
+        <v>138</v>
       </c>
       <c r="BY8" t="n">
-        <v>939</v>
+        <v>145</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1165</v>
+        <v>203</v>
       </c>
       <c r="CA8" t="n">
-        <v>805</v>
+        <v>91</v>
       </c>
       <c r="CB8" t="n">
-        <v>967</v>
+        <v>136</v>
       </c>
       <c r="CC8" t="n">
-        <v>1130</v>
+        <v>138</v>
       </c>
       <c r="CD8" t="n">
-        <v>861</v>
+        <v>129</v>
       </c>
       <c r="CE8" t="n">
-        <v>910</v>
+        <v>110</v>
       </c>
       <c r="CF8" t="n">
-        <v>680</v>
+        <v>115</v>
       </c>
       <c r="CG8" t="n">
-        <v>532</v>
+        <v>98</v>
       </c>
       <c r="CH8" t="n">
-        <v>1175</v>
+        <v>231</v>
       </c>
       <c r="CI8" t="n">
-        <v>1339</v>
+        <v>241</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1405</v>
+        <v>235</v>
       </c>
       <c r="CK8" t="n">
-        <v>1144</v>
+        <v>187</v>
       </c>
       <c r="CL8" t="n">
-        <v>1444</v>
+        <v>269</v>
       </c>
       <c r="CM8" t="n">
-        <v>1112</v>
+        <v>209</v>
       </c>
       <c r="CN8" t="n">
-        <v>1191</v>
+        <v>194</v>
       </c>
       <c r="CO8" t="n">
-        <v>1262</v>
+        <v>231</v>
       </c>
       <c r="CP8" t="n">
-        <v>1054</v>
+        <v>196</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1276</v>
+        <v>188</v>
       </c>
       <c r="CR8" t="n">
-        <v>879</v>
+        <v>157</v>
       </c>
       <c r="CS8" t="n">
-        <v>1008</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>1265</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>1617</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>1743</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>1791</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>1653</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>1754</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>1611</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>1689</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>1487</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>1409</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>1400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
+          <t>F70-F79 - Retardo mental</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="D9" t="n">
+        <v>171</v>
+      </c>
+      <c r="E9" t="n">
+        <v>239</v>
+      </c>
+      <c r="F9" t="n">
+        <v>311</v>
+      </c>
+      <c r="G9" t="n">
+        <v>205</v>
+      </c>
+      <c r="H9" t="n">
+        <v>288</v>
+      </c>
+      <c r="I9" t="n">
+        <v>262</v>
+      </c>
+      <c r="J9" t="n">
+        <v>294</v>
+      </c>
+      <c r="K9" t="n">
+        <v>329</v>
+      </c>
+      <c r="L9" t="n">
+        <v>281</v>
+      </c>
+      <c r="M9" t="n">
+        <v>210</v>
+      </c>
+      <c r="N9" t="n">
+        <v>316</v>
+      </c>
+      <c r="O9" t="n">
+        <v>406</v>
+      </c>
+      <c r="P9" t="n">
+        <v>393</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>409</v>
+      </c>
+      <c r="R9" t="n">
+        <v>393</v>
+      </c>
+      <c r="S9" t="n">
+        <v>286</v>
+      </c>
+      <c r="T9" t="n">
+        <v>308</v>
+      </c>
+      <c r="U9" t="n">
+        <v>299</v>
+      </c>
+      <c r="V9" t="n">
+        <v>255</v>
+      </c>
+      <c r="W9" t="n">
+        <v>299</v>
+      </c>
+      <c r="X9" t="n">
+        <v>207</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>165</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>289</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>428</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>557</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>533</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>703</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>505</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>499</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>526</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>544</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>496</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>412</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>456</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>483</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>539</v>
+      </c>
+      <c r="AO9" t="n">
         <v>486</v>
       </c>
-      <c r="E9" t="n">
-        <v>475</v>
-      </c>
-      <c r="F9" t="n">
-        <v>430</v>
-      </c>
-      <c r="G9" t="n">
-        <v>388</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="AP9" t="n">
+        <v>527</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>547</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>516</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>579</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>554</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>390</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>636</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>545</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>330</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>419</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>483</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>472</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>385</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>397</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>293</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>249</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>503</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>471</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>486</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>637</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>708</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>704</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>721</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>788</v>
+      </c>
+      <c r="BO9" t="n">
         <v>613</v>
       </c>
-      <c r="I9" t="n">
-        <v>594</v>
-      </c>
-      <c r="J9" t="n">
-        <v>497</v>
-      </c>
-      <c r="K9" t="n">
-        <v>666</v>
-      </c>
-      <c r="L9" t="n">
-        <v>565</v>
-      </c>
-      <c r="M9" t="n">
-        <v>291</v>
-      </c>
-      <c r="N9" t="n">
-        <v>571</v>
-      </c>
-      <c r="O9" t="n">
-        <v>606</v>
-      </c>
-      <c r="P9" t="n">
-        <v>545</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>703</v>
-      </c>
-      <c r="R9" t="n">
-        <v>745</v>
-      </c>
-      <c r="S9" t="n">
-        <v>763</v>
-      </c>
-      <c r="T9" t="n">
-        <v>665</v>
-      </c>
-      <c r="U9" t="n">
-        <v>679</v>
-      </c>
-      <c r="V9" t="n">
-        <v>518</v>
-      </c>
-      <c r="W9" t="n">
-        <v>445</v>
-      </c>
-      <c r="X9" t="n">
-        <v>377</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>316</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>635</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>983</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1200</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1506</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1553</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1083</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1246</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1212</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1288</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1241</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>737</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>735</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>745</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1433</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1631</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1760</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1508</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1594</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1809</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>1522</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1044</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1449</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1040</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>693</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>1153</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1345</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1254</v>
-      </c>
-      <c r="BB9" t="n">
+      <c r="BP9" t="n">
+        <v>770</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>762</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>585</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>474</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>358</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>328</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>741</v>
+      </c>
+      <c r="BW9" t="n">
         <v>1013</v>
       </c>
-      <c r="BC9" t="n">
-        <v>970</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>657</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>451</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>486</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1222</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>1173</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1195</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>1795</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>2414</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>2049</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>2076</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>2124</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>2140</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>1808</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>1665</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>1341</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>1398</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>933</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>931</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>2287</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>2885</v>
-      </c>
       <c r="BX9" t="n">
-        <v>3052</v>
+        <v>891</v>
       </c>
       <c r="BY9" t="n">
-        <v>3623</v>
+        <v>939</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3535</v>
+        <v>1165</v>
       </c>
       <c r="CA9" t="n">
-        <v>2691</v>
+        <v>805</v>
       </c>
       <c r="CB9" t="n">
-        <v>2936</v>
+        <v>967</v>
       </c>
       <c r="CC9" t="n">
-        <v>3661</v>
+        <v>1130</v>
       </c>
       <c r="CD9" t="n">
-        <v>2889</v>
+        <v>861</v>
       </c>
       <c r="CE9" t="n">
-        <v>3276</v>
+        <v>910</v>
       </c>
       <c r="CF9" t="n">
-        <v>2615</v>
+        <v>680</v>
       </c>
       <c r="CG9" t="n">
-        <v>1832</v>
+        <v>532</v>
       </c>
       <c r="CH9" t="n">
-        <v>3908</v>
+        <v>1175</v>
       </c>
       <c r="CI9" t="n">
-        <v>5293</v>
+        <v>1339</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5328</v>
+        <v>1405</v>
       </c>
       <c r="CK9" t="n">
-        <v>4716</v>
+        <v>1144</v>
       </c>
       <c r="CL9" t="n">
-        <v>5409</v>
+        <v>1444</v>
       </c>
       <c r="CM9" t="n">
-        <v>4425</v>
+        <v>1112</v>
       </c>
       <c r="CN9" t="n">
-        <v>4310</v>
+        <v>1191</v>
       </c>
       <c r="CO9" t="n">
-        <v>4891</v>
+        <v>1262</v>
       </c>
       <c r="CP9" t="n">
-        <v>3790</v>
+        <v>1054</v>
       </c>
       <c r="CQ9" t="n">
-        <v>4355</v>
+        <v>1276</v>
       </c>
       <c r="CR9" t="n">
-        <v>3020</v>
+        <v>879</v>
       </c>
       <c r="CS9" t="n">
-        <v>3444</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>6081</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>7728</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>9002</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>8948</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>8450</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>8140</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>8058</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>7811</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>8175</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>6414</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>5669</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>5613</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
+          <t>F80-F89 - Transtornos do desenvolvimento psicológico</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>367</v>
       </c>
       <c r="D10" t="n">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="E10" t="n">
-        <v>352</v>
+        <v>475</v>
       </c>
       <c r="F10" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G10" t="n">
-        <v>287</v>
+        <v>388</v>
       </c>
       <c r="H10" t="n">
-        <v>420</v>
+        <v>613</v>
       </c>
       <c r="I10" t="n">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="J10" t="n">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="K10" t="n">
-        <v>524</v>
+        <v>666</v>
       </c>
       <c r="L10" t="n">
-        <v>436</v>
+        <v>565</v>
       </c>
       <c r="M10" t="n">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="N10" t="n">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="O10" t="n">
-        <v>751</v>
+        <v>606</v>
       </c>
       <c r="P10" t="n">
-        <v>743</v>
+        <v>545</v>
       </c>
       <c r="Q10" t="n">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="R10" t="n">
-        <v>633</v>
+        <v>745</v>
       </c>
       <c r="S10" t="n">
-        <v>507</v>
+        <v>763</v>
       </c>
       <c r="T10" t="n">
-        <v>492</v>
+        <v>665</v>
       </c>
       <c r="U10" t="n">
-        <v>511</v>
+        <v>679</v>
       </c>
       <c r="V10" t="n">
-        <v>399</v>
+        <v>518</v>
       </c>
       <c r="W10" t="n">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="X10" t="n">
-        <v>240</v>
+        <v>377</v>
       </c>
       <c r="Y10" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="Z10" t="n">
-        <v>528</v>
+        <v>635</v>
       </c>
       <c r="AA10" t="n">
-        <v>761</v>
+        <v>983</v>
       </c>
       <c r="AB10" t="n">
-        <v>1010</v>
+        <v>1200</v>
       </c>
       <c r="AC10" t="n">
-        <v>992</v>
+        <v>1506</v>
       </c>
       <c r="AD10" t="n">
-        <v>1107</v>
+        <v>1553</v>
       </c>
       <c r="AE10" t="n">
-        <v>843</v>
+        <v>1083</v>
       </c>
       <c r="AF10" t="n">
-        <v>928</v>
+        <v>1246</v>
       </c>
       <c r="AG10" t="n">
-        <v>1025</v>
+        <v>1212</v>
       </c>
       <c r="AH10" t="n">
-        <v>918</v>
+        <v>1288</v>
       </c>
       <c r="AI10" t="n">
-        <v>904</v>
+        <v>1241</v>
       </c>
       <c r="AJ10" t="n">
+        <v>737</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>735</v>
+      </c>
+      <c r="AL10" t="n">
         <v>745</v>
       </c>
-      <c r="AK10" t="n">
-        <v>722</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>651</v>
-      </c>
       <c r="AM10" t="n">
-        <v>851</v>
+        <v>1433</v>
       </c>
       <c r="AN10" t="n">
-        <v>1038</v>
+        <v>1631</v>
       </c>
       <c r="AO10" t="n">
-        <v>973</v>
+        <v>1760</v>
       </c>
       <c r="AP10" t="n">
-        <v>1166</v>
+        <v>1508</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1043</v>
+        <v>1494</v>
       </c>
       <c r="AR10" t="n">
-        <v>927</v>
+        <v>1594</v>
       </c>
       <c r="AS10" t="n">
-        <v>1191</v>
+        <v>1809</v>
       </c>
       <c r="AT10" t="n">
-        <v>954</v>
+        <v>1522</v>
       </c>
       <c r="AU10" t="n">
-        <v>772</v>
+        <v>1044</v>
       </c>
       <c r="AV10" t="n">
-        <v>1042</v>
+        <v>1449</v>
       </c>
       <c r="AW10" t="n">
-        <v>832</v>
+        <v>1040</v>
       </c>
       <c r="AX10" t="n">
-        <v>534</v>
+        <v>693</v>
       </c>
       <c r="AY10" t="n">
-        <v>768</v>
+        <v>1153</v>
       </c>
       <c r="AZ10" t="n">
-        <v>885</v>
+        <v>1345</v>
       </c>
       <c r="BA10" t="n">
-        <v>865</v>
+        <v>1254</v>
       </c>
       <c r="BB10" t="n">
-        <v>737</v>
+        <v>1013</v>
       </c>
       <c r="BC10" t="n">
-        <v>889</v>
+        <v>970</v>
       </c>
       <c r="BD10" t="n">
-        <v>702</v>
+        <v>657</v>
       </c>
       <c r="BE10" t="n">
-        <v>608</v>
+        <v>451</v>
       </c>
       <c r="BF10" t="n">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="BG10" t="n">
-        <v>845</v>
+        <v>1222</v>
       </c>
       <c r="BH10" t="n">
-        <v>810</v>
+        <v>1173</v>
       </c>
       <c r="BI10" t="n">
-        <v>782</v>
+        <v>1195</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1060</v>
+        <v>1795</v>
       </c>
       <c r="BK10" t="n">
-        <v>1357</v>
+        <v>2414</v>
       </c>
       <c r="BL10" t="n">
-        <v>1201</v>
+        <v>2049</v>
       </c>
       <c r="BM10" t="n">
-        <v>1242</v>
+        <v>2076</v>
       </c>
       <c r="BN10" t="n">
-        <v>1292</v>
+        <v>2124</v>
       </c>
       <c r="BO10" t="n">
-        <v>1139</v>
+        <v>2140</v>
       </c>
       <c r="BP10" t="n">
-        <v>991</v>
+        <v>1808</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1037</v>
+        <v>1665</v>
       </c>
       <c r="BR10" t="n">
-        <v>907</v>
+        <v>1341</v>
       </c>
       <c r="BS10" t="n">
-        <v>895</v>
+        <v>1398</v>
       </c>
       <c r="BT10" t="n">
-        <v>716</v>
+        <v>933</v>
       </c>
       <c r="BU10" t="n">
-        <v>638</v>
+        <v>931</v>
       </c>
       <c r="BV10" t="n">
-        <v>1262</v>
+        <v>2287</v>
       </c>
       <c r="BW10" t="n">
-        <v>1631</v>
+        <v>2885</v>
       </c>
       <c r="BX10" t="n">
-        <v>1712</v>
+        <v>3052</v>
       </c>
       <c r="BY10" t="n">
-        <v>1938</v>
+        <v>3623</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2024</v>
+        <v>3535</v>
       </c>
       <c r="CA10" t="n">
-        <v>1404</v>
+        <v>2691</v>
       </c>
       <c r="CB10" t="n">
-        <v>1607</v>
+        <v>2936</v>
       </c>
       <c r="CC10" t="n">
-        <v>1868</v>
+        <v>3661</v>
       </c>
       <c r="CD10" t="n">
-        <v>1525</v>
+        <v>2889</v>
       </c>
       <c r="CE10" t="n">
-        <v>1679</v>
+        <v>3276</v>
       </c>
       <c r="CF10" t="n">
-        <v>1243</v>
+        <v>2615</v>
       </c>
       <c r="CG10" t="n">
-        <v>1042</v>
+        <v>1832</v>
       </c>
       <c r="CH10" t="n">
-        <v>2254</v>
+        <v>3908</v>
       </c>
       <c r="CI10" t="n">
-        <v>2972</v>
+        <v>5293</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3082</v>
+        <v>5328</v>
       </c>
       <c r="CK10" t="n">
-        <v>2824</v>
+        <v>4716</v>
       </c>
       <c r="CL10" t="n">
-        <v>3254</v>
+        <v>5409</v>
       </c>
       <c r="CM10" t="n">
-        <v>2360</v>
+        <v>4425</v>
       </c>
       <c r="CN10" t="n">
-        <v>2336</v>
+        <v>4310</v>
       </c>
       <c r="CO10" t="n">
-        <v>2649</v>
+        <v>4891</v>
       </c>
       <c r="CP10" t="n">
-        <v>2055</v>
+        <v>3790</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2353</v>
+        <v>4355</v>
       </c>
       <c r="CR10" t="n">
-        <v>1713</v>
+        <v>3020</v>
       </c>
       <c r="CS10" t="n">
-        <v>1814</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>3080</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>4054</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>4895</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>4643</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>4288</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>3940</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>3991</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>4073</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>4409</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>3465</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>3072</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>2917</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F99-F99 - Transtorno mental não especificado</t>
+          <t>F90-F98 - Transtornos do comportamento e transtornos emocionais que aparecem habitualmente durante a infância ou a adolescência</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="D11" t="n">
-        <v>84</v>
+        <v>415</v>
       </c>
       <c r="E11" t="n">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="F11" t="n">
-        <v>102</v>
+        <v>420</v>
       </c>
       <c r="G11" t="n">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="H11" t="n">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="I11" t="n">
-        <v>199</v>
+        <v>508</v>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>435</v>
       </c>
       <c r="K11" t="n">
-        <v>155</v>
+        <v>524</v>
       </c>
       <c r="L11" t="n">
-        <v>159</v>
+        <v>436</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="N11" t="n">
-        <v>95</v>
+        <v>531</v>
       </c>
       <c r="O11" t="n">
-        <v>126</v>
+        <v>751</v>
       </c>
       <c r="P11" t="n">
-        <v>125</v>
+        <v>743</v>
       </c>
       <c r="Q11" t="n">
-        <v>151</v>
+        <v>700</v>
       </c>
       <c r="R11" t="n">
-        <v>143</v>
+        <v>633</v>
       </c>
       <c r="S11" t="n">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="T11" t="n">
-        <v>120</v>
+        <v>492</v>
       </c>
       <c r="U11" t="n">
-        <v>123</v>
+        <v>511</v>
       </c>
       <c r="V11" t="n">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="W11" t="n">
-        <v>86</v>
+        <v>366</v>
       </c>
       <c r="X11" t="n">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Z11" t="n">
-        <v>132</v>
+        <v>528</v>
       </c>
       <c r="AA11" t="n">
-        <v>166</v>
+        <v>761</v>
       </c>
       <c r="AB11" t="n">
-        <v>179</v>
+        <v>1010</v>
       </c>
       <c r="AC11" t="n">
-        <v>155</v>
+        <v>992</v>
       </c>
       <c r="AD11" t="n">
-        <v>170</v>
+        <v>1107</v>
       </c>
       <c r="AE11" t="n">
-        <v>181</v>
+        <v>843</v>
       </c>
       <c r="AF11" t="n">
-        <v>134</v>
+        <v>928</v>
       </c>
       <c r="AG11" t="n">
-        <v>176</v>
+        <v>1025</v>
       </c>
       <c r="AH11" t="n">
-        <v>162</v>
+        <v>918</v>
       </c>
       <c r="AI11" t="n">
-        <v>179</v>
+        <v>904</v>
       </c>
       <c r="AJ11" t="n">
-        <v>189</v>
+        <v>745</v>
       </c>
       <c r="AK11" t="n">
-        <v>172</v>
+        <v>722</v>
       </c>
       <c r="AL11" t="n">
-        <v>228</v>
+        <v>651</v>
       </c>
       <c r="AM11" t="n">
-        <v>163</v>
+        <v>851</v>
       </c>
       <c r="AN11" t="n">
-        <v>273</v>
+        <v>1038</v>
       </c>
       <c r="AO11" t="n">
-        <v>289</v>
+        <v>973</v>
       </c>
       <c r="AP11" t="n">
-        <v>331</v>
+        <v>1166</v>
       </c>
       <c r="AQ11" t="n">
-        <v>342</v>
+        <v>1043</v>
       </c>
       <c r="AR11" t="n">
-        <v>239</v>
+        <v>927</v>
       </c>
       <c r="AS11" t="n">
-        <v>187</v>
+        <v>1191</v>
       </c>
       <c r="AT11" t="n">
-        <v>196</v>
+        <v>954</v>
       </c>
       <c r="AU11" t="n">
-        <v>171</v>
+        <v>772</v>
       </c>
       <c r="AV11" t="n">
-        <v>296</v>
+        <v>1042</v>
       </c>
       <c r="AW11" t="n">
-        <v>196</v>
+        <v>832</v>
       </c>
       <c r="AX11" t="n">
-        <v>348</v>
+        <v>534</v>
       </c>
       <c r="AY11" t="n">
-        <v>434</v>
+        <v>768</v>
       </c>
       <c r="AZ11" t="n">
-        <v>488</v>
+        <v>885</v>
       </c>
       <c r="BA11" t="n">
-        <v>431</v>
+        <v>865</v>
       </c>
       <c r="BB11" t="n">
-        <v>486</v>
+        <v>737</v>
       </c>
       <c r="BC11" t="n">
-        <v>419</v>
+        <v>889</v>
       </c>
       <c r="BD11" t="n">
-        <v>380</v>
+        <v>702</v>
       </c>
       <c r="BE11" t="n">
-        <v>351</v>
+        <v>608</v>
       </c>
       <c r="BF11" t="n">
-        <v>301</v>
+        <v>573</v>
       </c>
       <c r="BG11" t="n">
-        <v>350</v>
+        <v>845</v>
       </c>
       <c r="BH11" t="n">
-        <v>247</v>
+        <v>810</v>
       </c>
       <c r="BI11" t="n">
-        <v>234</v>
+        <v>782</v>
       </c>
       <c r="BJ11" t="n">
-        <v>444</v>
+        <v>1060</v>
       </c>
       <c r="BK11" t="n">
-        <v>495</v>
+        <v>1357</v>
       </c>
       <c r="BL11" t="n">
-        <v>448</v>
+        <v>1201</v>
       </c>
       <c r="BM11" t="n">
-        <v>566</v>
+        <v>1242</v>
       </c>
       <c r="BN11" t="n">
-        <v>512</v>
+        <v>1292</v>
       </c>
       <c r="BO11" t="n">
-        <v>453</v>
+        <v>1139</v>
       </c>
       <c r="BP11" t="n">
-        <v>454</v>
+        <v>991</v>
       </c>
       <c r="BQ11" t="n">
-        <v>467</v>
+        <v>1037</v>
       </c>
       <c r="BR11" t="n">
-        <v>403</v>
+        <v>907</v>
       </c>
       <c r="BS11" t="n">
-        <v>499</v>
+        <v>895</v>
       </c>
       <c r="BT11" t="n">
-        <v>367</v>
+        <v>716</v>
       </c>
       <c r="BU11" t="n">
-        <v>403</v>
+        <v>638</v>
       </c>
       <c r="BV11" t="n">
-        <v>445</v>
+        <v>1262</v>
       </c>
       <c r="BW11" t="n">
-        <v>481</v>
+        <v>1631</v>
       </c>
       <c r="BX11" t="n">
-        <v>636</v>
+        <v>1712</v>
       </c>
       <c r="BY11" t="n">
-        <v>523</v>
+        <v>1938</v>
       </c>
       <c r="BZ11" t="n">
-        <v>534</v>
+        <v>2024</v>
       </c>
       <c r="CA11" t="n">
-        <v>426</v>
+        <v>1404</v>
       </c>
       <c r="CB11" t="n">
-        <v>581</v>
+        <v>1607</v>
       </c>
       <c r="CC11" t="n">
-        <v>570</v>
+        <v>1868</v>
       </c>
       <c r="CD11" t="n">
-        <v>478</v>
+        <v>1525</v>
       </c>
       <c r="CE11" t="n">
-        <v>565</v>
+        <v>1679</v>
       </c>
       <c r="CF11" t="n">
-        <v>515</v>
+        <v>1243</v>
       </c>
       <c r="CG11" t="n">
-        <v>545</v>
+        <v>1042</v>
       </c>
       <c r="CH11" t="n">
-        <v>556</v>
+        <v>2254</v>
       </c>
       <c r="CI11" t="n">
-        <v>735</v>
+        <v>2972</v>
       </c>
       <c r="CJ11" t="n">
-        <v>653</v>
+        <v>3082</v>
       </c>
       <c r="CK11" t="n">
-        <v>738</v>
+        <v>2824</v>
       </c>
       <c r="CL11" t="n">
-        <v>741</v>
+        <v>3254</v>
       </c>
       <c r="CM11" t="n">
-        <v>612</v>
+        <v>2360</v>
       </c>
       <c r="CN11" t="n">
-        <v>587</v>
+        <v>2336</v>
       </c>
       <c r="CO11" t="n">
-        <v>713</v>
+        <v>2649</v>
       </c>
       <c r="CP11" t="n">
-        <v>599</v>
+        <v>2055</v>
       </c>
       <c r="CQ11" t="n">
-        <v>598</v>
+        <v>2353</v>
       </c>
       <c r="CR11" t="n">
-        <v>564</v>
+        <v>1713</v>
       </c>
       <c r="CS11" t="n">
-        <v>543</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>571</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>659</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>605</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>639</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>560</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>706</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>608</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>669</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>735</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>704</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>653</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>806</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>F99-F99 - Transtorno mental não especificado</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>105</v>
+      </c>
+      <c r="F12" t="n">
+        <v>102</v>
+      </c>
+      <c r="G12" t="n">
+        <v>111</v>
+      </c>
+      <c r="H12" t="n">
+        <v>188</v>
+      </c>
+      <c r="I12" t="n">
+        <v>199</v>
+      </c>
+      <c r="J12" t="n">
+        <v>120</v>
+      </c>
+      <c r="K12" t="n">
+        <v>155</v>
+      </c>
+      <c r="L12" t="n">
+        <v>159</v>
+      </c>
+      <c r="M12" t="n">
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>95</v>
+      </c>
+      <c r="O12" t="n">
+        <v>126</v>
+      </c>
+      <c r="P12" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>151</v>
+      </c>
+      <c r="R12" t="n">
+        <v>143</v>
+      </c>
+      <c r="S12" t="n">
+        <v>95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>120</v>
+      </c>
+      <c r="U12" t="n">
+        <v>123</v>
+      </c>
+      <c r="V12" t="n">
+        <v>78</v>
+      </c>
+      <c r="W12" t="n">
+        <v>86</v>
+      </c>
+      <c r="X12" t="n">
+        <v>69</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>166</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>179</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>155</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>181</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>134</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>176</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>162</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>179</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>189</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>172</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>228</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>163</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>273</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>289</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>331</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>342</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>239</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>187</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>196</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>171</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>296</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>196</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>348</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>434</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>488</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>431</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>486</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>419</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>380</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>247</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>234</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>444</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>495</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>448</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>566</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>512</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>453</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>454</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>467</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>403</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>499</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>367</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>403</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>445</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>481</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>636</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>523</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>534</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>426</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>581</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>570</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>478</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>565</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>515</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>545</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>556</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>735</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>653</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>738</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>741</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>612</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>587</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>713</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>599</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>598</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>564</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3096</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3602</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4770</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5231</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5841</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4720</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5989</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5524</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4888</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5837</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5144</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4093</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7619</v>
-      </c>
-      <c r="O12" t="n">
-        <v>9330</v>
-      </c>
-      <c r="P12" t="n">
-        <v>9280</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>8706</v>
-      </c>
-      <c r="R12" t="n">
-        <v>8709</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6778</v>
-      </c>
-      <c r="T12" t="n">
-        <v>6894</v>
-      </c>
-      <c r="U12" t="n">
-        <v>7015</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5646</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5656</v>
-      </c>
-      <c r="X12" t="n">
-        <v>4171</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>4170</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8493</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11439</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>14418</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13550</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15184</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11755</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11609</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12189</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11960</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>11122</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9299</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>9693</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>10691</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>13607</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>15976</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>14882</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>15971</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15158</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>13335</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>15528</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>13655</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>10326</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>15651</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>13634</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11940</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>15488</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>16054</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>16447</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>15289</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>16751</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>14368</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>12836</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>11245</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>14214</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>12919</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>13785</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>20162</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>22262</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>21325</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>22560</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>23806</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>20886</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>20553</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>20351</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>18398</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>18996</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>14178</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>12462</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>23383</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>27519</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>27322</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>29449</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>31252</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>22885</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>26465</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>29768</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>24607</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>27756</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>22527</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>19190</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>32927</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>39855</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>41485</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>37261</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>42013</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>33664</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>33138</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>36554</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>29783</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>35114</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>26546</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>29414</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>37521</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>45954</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>54620</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>51520</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>50242</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>47346</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>47380</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>46849</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>51421</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>43479</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>40965</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>42153</v>
+      <c r="B13" t="n">
+        <v>3146</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3681</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4876</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5964</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4806</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6094</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5633</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4983</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6016</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5234</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4184</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7838</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9607</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9485</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8886</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8858</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6934</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7048</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7208</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5741</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5774</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4245</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4265</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8668</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11656</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14653</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13765</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15561</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11946</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11888</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12379</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12146</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11322</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9471</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9974</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>10854</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>13770</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>16175</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15077</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>16199</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>15383</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>13499</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>15765</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>13896</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10537</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>15951</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>13986</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12139</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>15708</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>16259</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>16701</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>15551</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>17036</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>14654</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>13058</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>11428</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>14459</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>13110</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>13991</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>20524</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>22595</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>21712</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>23012</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>24205</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>21220</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>20794</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>20575</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>18627</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>19222</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>14366</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>12631</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>23727</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>27987</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>27745</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>29923</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>31811</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>23209</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>26890</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>30206</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>25005</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>28147</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>22867</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>19523</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>33509</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>40631</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>42161</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>37901</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>42866</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>34273</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>33729</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>37155</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>30268</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>35707</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>27043</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>29899</v>
       </c>
     </row>
   </sheetData>
